--- a/Corridor_Profile/FTW_Corridors.xlsx
+++ b/Corridor_Profile/FTW_Corridors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/Corridor_Profile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/FDTMP_WebAPP/Corridor_Profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_5B0B66E54705AB64438530BF880B00DE6926C66A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E216C6-65E9-47DA-8C55-07EB615DEE66}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_5B0B66E54705AB64438530BF880B00DE6926C66A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2EEB5C-0096-4814-96DE-6A82D4E15BCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Corridor</t>
   </si>
@@ -159,13 +156,61 @@
   </si>
   <si>
     <t>HWY_Label</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>HWY_Shield</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM1187.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM0051.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM0847.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/IH0020.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/IH0035W.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0144.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0171.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0174.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0199.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0180.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0281.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0377.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0380.svg</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0067.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +222,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,10 +267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -230,8 +284,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,305 +566,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
     <sortCondition ref="D3:D15"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/" xr:uid="{5EFA1981-8C9F-4D34-B783-9C99F170DAA1}"/>
+    <hyperlink ref="F3:F15" r:id="rId2" display="https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/" xr:uid="{8AAD915C-6A8F-45F7-9062-F132C6E70C40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091D4D65A8029A74988CA7D1D00094EF9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6b4e795525bd255b7efa7c1da0b9372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="181fec0f-4717-4390-b240-da7bd5a26b76" xmlns:ns3="e03b7d8c-7947-44f9-9112-5307e14ef7f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55de5683b03352c36ef40561bbf579d6" ns2:_="" ns3:_="">
     <xsd:import namespace="181fec0f-4717-4390-b240-da7bd5a26b76"/>
@@ -1021,26 +1107,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BA1CD9-5898-4A11-B8BB-DF86245374B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
-    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289457DB-54B9-4685-AC34-929F70525E7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB38C779-FF4F-4B18-9A66-6B0CC12B32D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1057,4 +1144,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BA1CD9-5898-4A11-B8BB-DF86245374B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
+    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289457DB-54B9-4685-AC34-929F70525E7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Corridor_Profile/FTW_Corridors.xlsx
+++ b/Corridor_Profile/FTW_Corridors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/FDTMP_WebAPP/Corridor_Profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_5B0B66E54705AB64438530BF880B00DE6926C66A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2EEB5C-0096-4814-96DE-6A82D4E15BCA}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_5B0B66E54705AB64438530BF880B00DE6926C66A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38BC52E5-AF30-49FC-930A-1F654A28BD6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,46 +164,46 @@
     <t>HWY_Shield</t>
   </si>
   <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM1187.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM0051.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/FM0847.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/IH0020.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/IH0035W.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0144.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0171.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0174.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/SH0199.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0180.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0281.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0377.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0380.svg</t>
-  </si>
-  <si>
-    <t>https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/US0067.svg</t>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/FM1187.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/FM0051.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/FM0847.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/IH0020.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/IH0035W.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/SH0144.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/SH0171.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/SH0174.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/SH0199.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/US0180.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/US0281.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/US0377.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/US0380.png</t>
+  </si>
+  <si>
+    <t>https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/US0067.png</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,14 +887,34 @@
     <sortCondition ref="D3:D15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/" xr:uid="{5EFA1981-8C9F-4D34-B783-9C99F170DAA1}"/>
-    <hyperlink ref="F3:F15" r:id="rId2" display="https://pine-j.github.io/FDTMP_WebAPP/https://pine-j.github.io/FDTMP_WebAPP/" xr:uid="{8AAD915C-6A8F-45F7-9062-F132C6E70C40}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/" xr:uid="{5EFA1981-8C9F-4D34-B783-9C99F170DAA1}"/>
+    <hyperlink ref="F3:F15" r:id="rId2" display="https://pine-j.github.io/FDTMP_WebAPP/Corridor_Profile/HWY_Shields/" xr:uid="{CB778C6C-40AF-4D28-93D9-49FF5750D90C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091D4D65A8029A74988CA7D1D00094EF9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6b4e795525bd255b7efa7c1da0b9372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="181fec0f-4717-4390-b240-da7bd5a26b76" xmlns:ns3="e03b7d8c-7947-44f9-9112-5307e14ef7f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55de5683b03352c36ef40561bbf579d6" ns2:_="" ns3:_="">
     <xsd:import namespace="181fec0f-4717-4390-b240-da7bd5a26b76"/>
@@ -1107,27 +1127,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BA1CD9-5898-4A11-B8BB-DF86245374B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
+    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289457DB-54B9-4685-AC34-929F70525E7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB38C779-FF4F-4B18-9A66-6B0CC12B32D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1144,23 +1163,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20BA1CD9-5898-4A11-B8BB-DF86245374B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
-    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{289457DB-54B9-4685-AC34-929F70525E7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>